--- a/data/trans_dic/P15B_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15B_3_R-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,65; 51,62</t>
+          <t>12,48; 49,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,25; 36,89</t>
+          <t>15,59; 35,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,21; 21,99</t>
+          <t>4,14; 21,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,93; 28,71</t>
+          <t>5,1; 27,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,1; 16,67</t>
+          <t>2,03; 18,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,52</t>
+          <t>0,0; 6,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,47</t>
+          <t>0,0; 8,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 7,38</t>
+          <t>1,11; 6,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,27; 24,46</t>
+          <t>7,67; 24,95</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,58; 16,39</t>
+          <t>7,03; 16,9</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,33; 10,88</t>
+          <t>2,54; 11,09</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,39; 12,29</t>
+          <t>3,05; 11,44</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,41; 49,34</t>
+          <t>27,7; 50,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,44; 27,61</t>
+          <t>16,12; 27,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,75; 26,23</t>
+          <t>11,05; 26,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,86; 39,09</t>
+          <t>21,05; 38,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,34; 28,55</t>
+          <t>5,33; 28,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,87; 13,48</t>
+          <t>2,91; 12,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,48; 17,02</t>
+          <t>4,67; 18,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,77; 19,25</t>
+          <t>6,69; 19,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,6; 39,51</t>
+          <t>20,69; 39,34</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,62; 20,32</t>
+          <t>11,95; 19,87</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,77; 20,11</t>
+          <t>9,31; 19,41</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,09; 28,08</t>
+          <t>16,18; 27,97</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,75</t>
+          <t>0,0; 47,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,12; 38,32</t>
+          <t>6,94; 36,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,96</t>
+          <t>0,0; 27,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,28</t>
+          <t>0,0; 29,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,17</t>
+          <t>0,0; 43,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,63</t>
+          <t>0,0; 35,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,17; 29,16</t>
+          <t>3,32; 28,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,78</t>
+          <t>0,0; 15,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 33,7</t>
+          <t>3,3; 32,04</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,1; 30,13</t>
+          <t>6,98; 29,33</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 20,36</t>
+          <t>4,26; 20,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,95; 17,41</t>
+          <t>2,01; 18,53</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,28; 42,1</t>
+          <t>23,47; 41,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,96; 26,44</t>
+          <t>17,2; 26,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,2; 20,48</t>
+          <t>10,11; 20,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,46; 30,58</t>
+          <t>17,21; 30,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,76; 18,12</t>
+          <t>5,19; 18,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,74; 9,02</t>
+          <t>2,68; 8,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,23; 11,91</t>
+          <t>4,24; 11,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,52; 11,57</t>
+          <t>4,75; 11,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,34; 28,92</t>
+          <t>16,92; 28,33</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,27; 17,33</t>
+          <t>11,25; 17,18</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,18; 14,85</t>
+          <t>8,06; 14,26</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,47; 18,66</t>
+          <t>11,13; 18,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P15B_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15B_3_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,48; 49,02</t>
+          <t>12,4; 47,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,59; 35,28</t>
+          <t>15,07; 34,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,14; 21,76</t>
+          <t>4,16; 23,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 18,24</t>
+          <t>2,02; 17,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,66</t>
+          <t>0,0; 6,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,67</t>
+          <t>0,0; 8,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,67; 24,95</t>
+          <t>7,2; 24,6</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,03; 16,9</t>
+          <t>7,17; 16,65</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,54; 11,09</t>
+          <t>2,59; 12,05</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,7; 50,13</t>
+          <t>26,12; 48,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,12; 27,83</t>
+          <t>15,24; 27,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,05; 26,05</t>
+          <t>11,12; 25,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,33; 28,18</t>
+          <t>5,41; 28,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,91; 12,7</t>
+          <t>2,84; 12,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,67; 18,42</t>
+          <t>4,47; 16,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,69; 39,34</t>
+          <t>21,95; 39,2</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,95; 19,87</t>
+          <t>11,68; 19,88</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,31; 19,41</t>
+          <t>10,04; 20,4</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,75</t>
+          <t>0,0; 43,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,94; 36,99</t>
+          <t>7,39; 39,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,08</t>
+          <t>0,0; 27,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,5</t>
+          <t>0,0; 43,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,81</t>
+          <t>0,0; 35,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,32; 28,13</t>
+          <t>3,5; 30,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,3; 32,04</t>
+          <t>3,07; 32,46</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,98; 29,33</t>
+          <t>7,21; 30,34</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,26; 20,79</t>
+          <t>3,58; 22,55</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,47; 41,09</t>
+          <t>23,37; 40,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,2; 26,31</t>
+          <t>16,99; 26,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,11; 20,71</t>
+          <t>10,09; 20,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,19; 18,26</t>
+          <t>5,08; 17,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,68; 8,95</t>
+          <t>2,9; 9,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,24; 11,97</t>
+          <t>4,5; 12,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,92; 28,33</t>
+          <t>16,93; 29,15</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,25; 17,18</t>
+          <t>11,21; 17,25</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,06; 14,26</t>
+          <t>8,26; 14,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P15B_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15B_3_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,4; 47,29</t>
+          <t>12,65; 51,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,07; 34,71</t>
+          <t>15,25; 36,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,16; 23,42</t>
+          <t>4,21; 21,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,1; 27,83</t>
+          <t>4,93; 28,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,02; 17,36</t>
+          <t>2,1; 16,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,28</t>
+          <t>0,0; 6,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,74</t>
+          <t>0,0; 10,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 6,7</t>
+          <t>1,12; 7,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,2; 24,6</t>
+          <t>7,27; 24,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,17; 16,65</t>
+          <t>6,58; 16,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,59; 12,05</t>
+          <t>2,33; 10,88</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,05; 11,44</t>
+          <t>3,39; 12,29</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,12; 48,48</t>
+          <t>27,41; 49,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,24; 27,58</t>
+          <t>15,44; 27,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,12; 25,94</t>
+          <t>11,75; 26,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,05; 38,38</t>
+          <t>20,86; 39,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,41; 28,89</t>
+          <t>5,34; 28,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 12,98</t>
+          <t>2,87; 13,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,47; 16,85</t>
+          <t>4,48; 17,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,69; 19,16</t>
+          <t>6,77; 19,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,95; 39,2</t>
+          <t>22,6; 39,51</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,68; 19,88</t>
+          <t>11,62; 20,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,04; 20,4</t>
+          <t>9,77; 20,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,18; 27,97</t>
+          <t>16,09; 28,08</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,59</t>
+          <t>0,0; 45,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,39; 39,36</t>
+          <t>7,12; 38,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,34</t>
+          <t>0,0; 27,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,55</t>
+          <t>0,0; 31,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,97</t>
+          <t>0,0; 43,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,56</t>
+          <t>0,0; 35,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,5; 30,67</t>
+          <t>3,17; 29,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,7</t>
+          <t>0,0; 14,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,07; 32,46</t>
+          <t>3,06; 33,7</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,21; 30,34</t>
+          <t>7,1; 30,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 22,55</t>
+          <t>4,27; 20,36</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,01; 18,53</t>
+          <t>1,95; 17,41</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,37; 40,62</t>
+          <t>24,28; 42,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,99; 26,29</t>
+          <t>16,96; 26,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,09; 20,68</t>
+          <t>10,2; 20,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,21; 30,7</t>
+          <t>16,46; 30,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,08; 17,85</t>
+          <t>4,76; 18,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 9,61</t>
+          <t>2,74; 9,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,5; 12,28</t>
+          <t>4,23; 11,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,75; 11,77</t>
+          <t>4,52; 11,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,93; 29,15</t>
+          <t>17,34; 28,92</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,21; 17,25</t>
+          <t>11,27; 17,33</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,26; 14,66</t>
+          <t>8,18; 14,85</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,13; 18,71</t>
+          <t>11,47; 18,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P15B_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15B_3_R-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>6,68%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,93; 28,71</t>
+          <t>5,05; 28,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 7,38</t>
+          <t>1,26; 7,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,39; 12,29</t>
+          <t>3,59; 12,86</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29,38%</t>
+          <t>29,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>11,54%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>21,34%</t>
+          <t>21,31%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,86; 39,09</t>
+          <t>20,6; 38,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,77; 19,25</t>
+          <t>6,82; 18,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,09; 28,08</t>
+          <t>15,88; 27,96</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>6,48%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,28</t>
+          <t>0,0; 29,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,78</t>
+          <t>0,0; 13,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,95; 17,41</t>
+          <t>1,9; 16,29</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,22%</t>
+          <t>22,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>14,88%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,46; 30,58</t>
+          <t>16,2; 30,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,52; 11,57</t>
+          <t>4,61; 11,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,47; 18,66</t>
+          <t>11,52; 18,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P15B_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15B_3_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,65; 51,62</t>
+          <t>12,67; 50,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,25; 36,89</t>
+          <t>15,12; 34,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,21; 21,99</t>
+          <t>4,22; 23,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,05; 28,93</t>
+          <t>5,14; 28,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,1; 16,67</t>
+          <t>2,03; 16,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,52</t>
+          <t>0,0; 6,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,47</t>
+          <t>0,0; 9,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 7,82</t>
+          <t>1,28; 7,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,27; 24,46</t>
+          <t>7,48; 24,82</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,58; 16,39</t>
+          <t>6,57; 15,64</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,33; 10,88</t>
+          <t>2,54; 11,44</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,59; 12,86</t>
+          <t>3,49; 12,4</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,41; 49,34</t>
+          <t>26,04; 48,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,44; 27,61</t>
+          <t>15,98; 28,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,75; 26,23</t>
+          <t>11,55; 26,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,6; 38,81</t>
+          <t>19,24; 38,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,34; 28,55</t>
+          <t>5,42; 29,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,87; 13,48</t>
+          <t>2,7; 12,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,48; 17,02</t>
+          <t>4,47; 16,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,82; 18,53</t>
+          <t>6,56; 20,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,6; 39,51</t>
+          <t>21,89; 38,94</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,62; 20,32</t>
+          <t>12,01; 20,61</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,77; 20,11</t>
+          <t>9,1; 19,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,88; 27,96</t>
+          <t>16,01; 28,77</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,75</t>
+          <t>0,0; 42,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,12; 38,32</t>
+          <t>7,16; 39,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,96</t>
+          <t>0,0; 23,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,36</t>
+          <t>0,0; 27,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,17</t>
+          <t>0,0; 52,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,63</t>
+          <t>0,0; 35,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,17; 29,16</t>
+          <t>3,34; 28,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,75</t>
+          <t>0,0; 14,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 33,7</t>
+          <t>0,0; 34,12</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,1; 30,13</t>
+          <t>7,54; 29,99</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 20,36</t>
+          <t>4,16; 22,05</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 16,29</t>
+          <t>2,0; 15,4</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,28; 42,1</t>
+          <t>24,11; 41,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,96; 26,44</t>
+          <t>17,13; 27,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,2; 20,48</t>
+          <t>10,09; 20,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,2; 30,38</t>
+          <t>17,11; 30,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,76; 18,12</t>
+          <t>5,29; 18,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,74; 9,02</t>
+          <t>2,72; 9,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,23; 11,91</t>
+          <t>4,25; 11,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,61; 11,47</t>
+          <t>4,75; 11,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,34; 28,92</t>
+          <t>17,09; 29,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,27; 17,33</t>
+          <t>11,24; 17,4</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,18; 14,85</t>
+          <t>8,08; 14,18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,52; 18,82</t>
+          <t>11,67; 19,11</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha tenido un accidente en el trabajo en el último año</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7305</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>18358</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4854</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5009</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3102</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2165</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2125</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2682</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>10407</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>20523</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>6979</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>7691</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3189; 12630</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>11600; 26374</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1894; 10434</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1829; 10056</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>924; 7541</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7527</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7345</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1016; 5766</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5290; 17549</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>12454; 29673</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3029; 13676</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4020; 14275</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>29383</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>38778</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>21154</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>37466</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4864</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7560</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8072</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>11766</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>34248</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>46338</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>29226</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>49232</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>20446; 38058</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>29280; 51878</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13875; 31699</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>24837; 50140</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1901; 10236</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3069; 14071</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3835; 14491</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6686; 20585</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>24852; 44214</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>35653; 61212</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>18749; 39395</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>37001; 66486</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2804</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5060</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2636</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1522</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3722</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3921</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1323</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>8782</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>6557</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>4151</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8232</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1865; 10184</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7367</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9140</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6887</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10299</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1036; 8779</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4518</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11135</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4136; 16442</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2568; 13630</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1282; 9869</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>39493</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>62196</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>28644</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>45303</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>9488</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>13446</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>14118</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>15772</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>48980</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>75642</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>42762</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>61075</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>29670; 51103</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>48994; 78043</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>19756; 39229</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>33865; 61119</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4963; 17783</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6941; 23649</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>8146; 22882</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>10097; 23852</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>37066; 63918</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>60870; 94229</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>31303; 54913</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>47897; 78398</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>